--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/domain-members-and-hierarchies-EDA-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/domain-members-and-hierarchies-EDA-2018-1.xlsx
@@ -19,11 +19,47 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,10 +90,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="5" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="6" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -79,88 +121,88 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="28.049999999999997"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>INFORMATIONDOMAIN</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>LANGUAGECODE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>DEFAULTCODE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CODESSHEET</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>EXTENSIONSSHEET</t>
         </is>
@@ -169,7 +211,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>d79df7c8-d404-4882-8d90-d2afff7b3e8d</t>
+          <t>7750dc2b-525f-4f26-a432-e4f04ad5b5e8</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -238,65 +280,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>BROADER</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
@@ -305,7 +347,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>0399c74d-e4c9-4364-8dd1-4b64c26ac84d</t>
+          <t>f1580632-f75e-4a54-b3d8-441eb707d5ec</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -341,7 +383,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>08bb3401-d67e-44a5-91c8-cf0f36ae61e5</t>
+          <t>f72237d1-9a19-4711-8d3e-c4a83021a849</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -377,7 +419,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>5429e395-7289-4d5a-a1cd-03d13f1de9de</t>
+          <t>ee4d1d85-fa04-4999-b5b9-40de25b0ac56</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -413,7 +455,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>c3200f34-270d-457f-bd9c-9171f6b1ccdc</t>
+          <t>a6658ce0-2b9f-4775-860a-6fdf281a897a</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -449,7 +491,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>e7f25448-a7bb-4e18-87cf-0a9528b138e2</t>
+          <t>e15b29aa-2a7d-4a2e-8313-0125f9a9bcc9</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -485,7 +527,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2875cfbd-7b06-4b4c-826e-c764cb3993d5</t>
+          <t>812bb92e-2b28-4c4e-a5ed-b12e79f31a70</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -521,7 +563,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>8a5e8094-90fa-41fb-91b6-f2da2a1f75b0</t>
+          <t>96d20b23-84b8-4032-b873-6af2b0278976</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -557,7 +599,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>a49fb8b8-75a5-4eea-8690-af500ce914ae</t>
+          <t>b4b55af8-8124-4802-9f1a-622be3e3a829</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -593,7 +635,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>7a1db419-077b-4b71-900f-9a18029aa26b</t>
+          <t>20a5328c-dbc5-4413-be80-a38948711eac</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -629,7 +671,7 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>5e5ad6d1-11c1-4e01-8fb6-7625fa37d318</t>
+          <t>ec62e8e8-abd4-4e7b-a2c9-0ab46c670ab7</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -665,7 +707,7 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>fb386d0c-ca43-46ed-b11c-865e2b9fcf7d</t>
+          <t>d0b86794-5dc0-4e68-b8c3-ee79dcf87a9a</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -701,7 +743,7 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>0b3996b1-2002-4456-96a2-7e841db73fec</t>
+          <t>5ad32af3-2b5c-480a-ac04-77192e696318</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -755,58 +797,58 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>PROPERTYTYPE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>MEMBERSSHEET</t>
         </is>
@@ -815,7 +857,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2fba0372-72d1-4aa3-8998-1cea17f55b52</t>
+          <t>98d1080e-b854-4f17-b9e4-8a7f8ac195f1</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -854,7 +896,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>09352cfb-5163-4bc2-85b9-9d6abb9ec925</t>
+          <t>c308b554-8f7b-4795-887c-f0bd2dc26c3e</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -893,7 +935,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>d4f486ea-68d7-432d-a524-7778a5b57073</t>
+          <t>374b066c-3a0f-433b-80be-8193b1ad0e91</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -949,47 +991,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="8.8"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>RELATION</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
@@ -998,7 +1040,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>1ee14dfa-50d2-48f8-af44-8722578f8942</t>
+          <t>4d43c2ba-c606-41d4-8d2c-36c253c543e0</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1019,7 +1061,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>97394f83-4f46-4965-8951-fadb31ef6549</t>
+          <t>cff1162b-db95-4a66-ba55-c73d4643ca0a</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1044,7 +1086,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>47dac420-4741-4ac6-a251-17b24d96f35e</t>
+          <t>482a330d-36e7-4309-805e-bb79c9bdfd2a</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1069,7 +1111,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>0d21d0c4-5244-42ec-a026-4f957203c8bc</t>
+          <t>01ce590a-e6b0-4478-b99c-1f513057316f</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1090,7 +1132,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>7da62cc6-eeae-4bcb-8c03-c89254ea0ae4</t>
+          <t>edfdc35a-4676-4740-a360-11fc6ba8728c</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -1132,59 +1174,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="37.400000000000006"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="33.0"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>RELATION</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>UNARYOPERATOR</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>COMPARISONOPERATOR</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
@@ -1193,7 +1235,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>78c78d82-3120-4129-89f3-0590f1f9702e</t>
+          <t>8f8ab5de-d301-4833-9078-b6f2cbdd8510</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1207,8 +1249,10 @@
           <t>+</t>
         </is>
       </c>
-      <c r="E2" s="0" t="str">
-        <f/>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
@@ -1222,7 +1266,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>caa08e78-af2c-452f-9462-a13733977cc3</t>
+          <t>1535b697-49a4-44ed-a7b3-c218b27e96bc</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1249,7 +1293,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>c229e784-4be3-4536-abe1-999d277d494e</t>
+          <t>d302f1c4-6df3-42d6-9ac3-4d2a3243248b</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1276,7 +1320,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>415820b6-5018-427f-8d96-4e3390740044</t>
+          <t>b8b0c2c1-2bbe-406b-9496-2f6f8e2d268b</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1307,7 +1351,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>414188f3-31a2-4bfb-8448-6021ef29400d</t>
+          <t>bc7ca78f-1cbe-4e47-a4f1-1eabcb652b04</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -1351,47 +1395,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="6.6"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>RELATION</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
